--- a/VDM/aspose/房屋信息导入模板.xlsx
+++ b/VDM/aspose/房屋信息导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18352" windowHeight="8055"/>
+    <workbookView windowWidth="18350" windowHeight="6880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1306,22 +1306,22 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="O$1:O$1048576 P$1:P$1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07079646017699" defaultRowHeight="13.2" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.07272727272727" defaultRowHeight="13.2" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.5309734513274" customWidth="1"/>
-    <col min="2" max="2" width="19.8672566371681" customWidth="1"/>
-    <col min="3" max="3" width="17.2035398230088" customWidth="1"/>
-    <col min="4" max="4" width="9.60176991150442" customWidth="1"/>
-    <col min="5" max="5" width="13.4690265486726" customWidth="1"/>
-    <col min="6" max="6" width="15.3982300884956" customWidth="1"/>
-    <col min="7" max="9" width="13.4690265486726" customWidth="1"/>
-    <col min="10" max="10" width="13.4690265486726" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.60176991150442" customWidth="1"/>
-    <col min="12" max="12" width="13.4690265486726" style="1" customWidth="1"/>
-    <col min="13" max="14" width="7.66371681415929" customWidth="1"/>
+    <col min="1" max="1" width="11.5272727272727" customWidth="1"/>
+    <col min="2" max="2" width="19.8636363636364" customWidth="1"/>
+    <col min="3" max="3" width="17.2" customWidth="1"/>
+    <col min="4" max="4" width="9.6" customWidth="1"/>
+    <col min="5" max="5" width="13.4727272727273" customWidth="1"/>
+    <col min="6" max="6" width="15.4" customWidth="1"/>
+    <col min="7" max="9" width="13.4727272727273" customWidth="1"/>
+    <col min="10" max="10" width="13.4727272727273" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6" customWidth="1"/>
+    <col min="12" max="12" width="13.4727272727273" style="1" customWidth="1"/>
+    <col min="13" max="14" width="7.66363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:14">
@@ -1370,7 +1370,7 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 F1 G1 H1 I1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 F1 G1 H1 I1 K1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"自建房,安置房,商品房"</formula1>
     </dataValidation>
@@ -1380,7 +1380,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
       <formula1>"A级,B级,C级,D级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576 I2:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576 I2:I1048576 K2:K1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
